--- a/AiPi-DSL_Dashboard/VC_code/离线语音指令表.xlsx
+++ b/AiPi-DSL_Dashboard/VC_code/离线语音指令表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\博安通\开源项目\小安派桌面助手\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E815CB-96E0-4A51-BBE7-13E34DF06D13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C885CB7-64EA-4D41-AD3E-3726C0BB3C45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="5355" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="162">
   <si>
     <t>指令属性</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -373,10 +373,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>网络搜索完毕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>搜索路由</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -402,6 +398,266 @@
   </si>
   <si>
     <t>5B 4B 02 0C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语音提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电脑静音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>静音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭音量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电脑已静音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5A 4A 02 0D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消静音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开音量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电脑声音已打开|静音取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电脑开声音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5A 4A 02 0E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增大音量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>声音大点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音量加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大点声</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减小音量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音量减小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音量减</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小点声</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>声音小点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5A 4A 02 0F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开音乐播放器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开网易云音乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开酷狗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5A 4A 02 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>播放下一曲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>换一首歌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切歌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一首</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一曲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放下一首</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在切歌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5A 4A 02 11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>播放上一曲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上一首</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放上一首</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>播放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂停</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>停止播放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5A 4A 02 12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5A 4A 02 13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放一首歌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给我放一首歌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放一首歌吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>播放音乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好的，马上给您播放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5A 4A 02 14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原神启动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开原神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5A 4A 02 15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝牙已连接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5B 4B 02 00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VC 复位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂停播放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5A 4A 02 16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5A 4A 02 17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5B 4B 02 0F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始播放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始搜索网络，请稍后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5B 4B 02 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5B 4B 02 11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络搜索完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电脑声音已打开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 电脑已静音</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -465,7 +721,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -579,6 +835,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -614,6 +885,21 @@
         <color indexed="64"/>
       </right>
       <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -621,20 +907,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -644,7 +917,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -652,47 +925,18 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -716,37 +960,13 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -758,16 +978,40 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1050,10 +1294,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I75" sqref="I75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1069,15 +1313,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="24"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="15"/>
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -1092,689 +1336,1330 @@
       <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5" t="s">
+      <c r="F2" s="16"/>
+      <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="6"/>
+      <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="10"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="10"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="13"/>
-      <c r="B5" s="8" t="s">
+      <c r="A5" s="19"/>
+      <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="10"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="13"/>
-      <c r="B6" s="8" t="s">
+      <c r="A6" s="19"/>
+      <c r="B6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="10"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="13"/>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="19"/>
+      <c r="B7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="10"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="13"/>
-      <c r="B8" s="8" t="s">
+      <c r="A8" s="19"/>
+      <c r="B8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="10"/>
+      <c r="G8" s="9"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="13"/>
-      <c r="B9" s="8" t="s">
+      <c r="A9" s="19"/>
+      <c r="B9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="10"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="9"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="13"/>
-      <c r="B10" s="8" t="s">
+      <c r="A10" s="19"/>
+      <c r="B10" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="10"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="9"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="13"/>
-      <c r="B11" s="8" t="s">
+      <c r="A11" s="19"/>
+      <c r="B11" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="10"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="9"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="13"/>
-      <c r="B12" s="8" t="s">
+      <c r="A12" s="19"/>
+      <c r="B12" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="10"/>
+      <c r="G12" s="9"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13"/>
-      <c r="B13" s="8" t="s">
+      <c r="A13" s="19"/>
+      <c r="B13" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="10"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="9"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="13"/>
-      <c r="B14" s="8" t="s">
+      <c r="A14" s="19"/>
+      <c r="B14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="10"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="9"/>
     </row>
     <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="13"/>
-      <c r="B15" s="8" t="s">
+      <c r="A15" s="19"/>
+      <c r="B15" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="10"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="9"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="13"/>
-      <c r="B16" s="8" t="s">
+      <c r="A16" s="19"/>
+      <c r="B16" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="G16" s="10"/>
+      <c r="G16" s="9"/>
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="13"/>
-      <c r="B17" s="8" t="s">
+      <c r="A17" s="19"/>
+      <c r="B17" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C17" s="18"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="10"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="9"/>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="13"/>
-      <c r="B18" s="8" t="s">
+      <c r="A18" s="19"/>
+      <c r="B18" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="10"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="9"/>
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="13"/>
-      <c r="B19" s="8" t="s">
+      <c r="A19" s="19"/>
+      <c r="B19" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="G19" s="10"/>
+      <c r="G19" s="9"/>
     </row>
     <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="13"/>
-      <c r="B20" s="8" t="s">
+      <c r="A20" s="19"/>
+      <c r="B20" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="10"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="9"/>
     </row>
     <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="13"/>
-      <c r="B21" s="8" t="s">
+      <c r="A21" s="19"/>
+      <c r="B21" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="10"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="9"/>
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="13"/>
-      <c r="B22" s="8" t="s">
+      <c r="A22" s="19"/>
+      <c r="B22" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="10"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="9"/>
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="13"/>
-      <c r="B23" s="8" t="s">
+      <c r="A23" s="19"/>
+      <c r="B23" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="F23" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="G23" s="10"/>
+      <c r="G23" s="9"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="13"/>
-      <c r="B24" s="8" t="s">
+      <c r="A24" s="19"/>
+      <c r="B24" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="10"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="9"/>
     </row>
     <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="13"/>
-      <c r="B25" s="8" t="s">
+      <c r="A25" s="19"/>
+      <c r="B25" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="10"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="9"/>
     </row>
     <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="13"/>
-      <c r="B26" s="8" t="s">
+      <c r="A26" s="19"/>
+      <c r="B26" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="D26" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E26" s="27" t="s">
+      <c r="E26" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F26" s="27" t="s">
+      <c r="F26" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G26" s="10"/>
+      <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="13"/>
-      <c r="B27" s="8" t="s">
+      <c r="A27" s="19"/>
+      <c r="B27" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="E27" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F27" s="12" t="s">
+      <c r="F27" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="G27" s="10"/>
+      <c r="G27" s="9"/>
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="13"/>
-      <c r="B28" s="8" t="s">
+      <c r="A28" s="19"/>
+      <c r="B28" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="10"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="9"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="13"/>
-      <c r="B29" s="8" t="s">
+      <c r="A29" s="19"/>
+      <c r="B29" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="10"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="13"/>
-      <c r="B30" s="8" t="s">
+      <c r="A30" s="19"/>
+      <c r="B30" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="27" t="s">
+      <c r="C30" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D30" s="27" t="s">
+      <c r="D30" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E30" s="27" t="s">
+      <c r="E30" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F30" s="27" t="s">
+      <c r="F30" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G30" s="10"/>
+      <c r="G30" s="9"/>
     </row>
     <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="13"/>
-      <c r="B31" s="8" t="s">
+      <c r="A31" s="19"/>
+      <c r="B31" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E31" s="12" t="s">
+      <c r="E31" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F31" s="12" t="s">
+      <c r="F31" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="G31" s="10"/>
+      <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="13"/>
-      <c r="B32" s="8" t="s">
+      <c r="A32" s="19"/>
+      <c r="B32" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="10"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="13"/>
-      <c r="B33" s="8" t="s">
+      <c r="A33" s="19"/>
+      <c r="B33" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="10"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="9"/>
     </row>
     <row r="34" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="13"/>
-      <c r="B34" s="8" t="s">
+      <c r="A34" s="19"/>
+      <c r="B34" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C34" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="D34" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E34" s="12" t="s">
+      <c r="E34" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F34" s="12" t="s">
+      <c r="F34" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G34" s="10"/>
+      <c r="G34" s="9"/>
     </row>
     <row r="35" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="13"/>
-      <c r="B35" s="8" t="s">
+      <c r="A35" s="19"/>
+      <c r="B35" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="10"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="9"/>
     </row>
     <row r="36" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="13"/>
-      <c r="B36" s="8" t="s">
+      <c r="A36" s="19"/>
+      <c r="B36" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="10"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="9"/>
     </row>
     <row r="37" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="25"/>
-      <c r="B37" s="8" t="s">
+      <c r="A37" s="19"/>
+      <c r="B37" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="G37" s="9"/>
+    </row>
+    <row r="38" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="19"/>
+      <c r="B38" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C37" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="D37" s="12" t="s">
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="9"/>
+    </row>
+    <row r="39" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="19"/>
+      <c r="B39" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="G39" s="9"/>
+    </row>
+    <row r="40" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="19"/>
+      <c r="B40" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="9"/>
+    </row>
+    <row r="41" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="19"/>
+      <c r="B41" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="9"/>
+    </row>
+    <row r="42" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="19"/>
+      <c r="B42" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="E42" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="G42" s="9"/>
+    </row>
+    <row r="43" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="19"/>
+      <c r="B43" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="9"/>
+    </row>
+    <row r="44" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="19"/>
+      <c r="B44" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F44" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="G44" s="9"/>
+    </row>
+    <row r="45" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="19"/>
+      <c r="B45" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="9"/>
+    </row>
+    <row r="46" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="19"/>
+      <c r="B46" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="9"/>
+    </row>
+    <row r="47" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="19"/>
+      <c r="B47" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="9"/>
+    </row>
+    <row r="48" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="19"/>
+      <c r="B48" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F48" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="G48" s="9"/>
+    </row>
+    <row r="49" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="19"/>
+      <c r="B49" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="9"/>
+    </row>
+    <row r="50" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="19"/>
+      <c r="B50" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="9"/>
+    </row>
+    <row r="51" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="19"/>
+      <c r="B51" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="9"/>
+    </row>
+    <row r="52" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="19"/>
+      <c r="B52" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="9"/>
+    </row>
+    <row r="53" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="19"/>
+      <c r="B53" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C53" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="D53" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E37" s="12" t="s">
+      <c r="E53" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F37" s="12" t="s">
+      <c r="F53" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="G53" s="9"/>
+    </row>
+    <row r="54" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="19"/>
+      <c r="B54" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="9"/>
+    </row>
+    <row r="55" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="19"/>
+      <c r="B55" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="9"/>
+    </row>
+    <row r="56" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="19"/>
+      <c r="B56" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C56" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="E56" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F56" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="G56" s="9"/>
+    </row>
+    <row r="57" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="19"/>
+      <c r="B57" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="9"/>
+    </row>
+    <row r="58" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="19"/>
+      <c r="B58" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="9"/>
+    </row>
+    <row r="59" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="19"/>
+      <c r="B59" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="9"/>
+    </row>
+    <row r="60" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="19"/>
+      <c r="B60" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C60" s="17"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="9"/>
+    </row>
+    <row r="61" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="19"/>
+      <c r="B61" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C61" s="17"/>
+      <c r="D61" s="17"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="17"/>
+      <c r="G61" s="9"/>
+    </row>
+    <row r="62" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="19"/>
+      <c r="B62" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C62" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="D62" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="E62" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F62" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="G62" s="9"/>
+    </row>
+    <row r="63" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="19"/>
+      <c r="B63" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C63" s="17"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="9"/>
+    </row>
+    <row r="64" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="19"/>
+      <c r="B64" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C64" s="17"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="17"/>
+      <c r="G64" s="9"/>
+    </row>
+    <row r="65" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="19"/>
+      <c r="B65" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C65" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="D65" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="E65" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F65" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="G65" s="9"/>
+    </row>
+    <row r="66" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="19"/>
+      <c r="B66" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C66" s="21"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="9"/>
+    </row>
+    <row r="67" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="19"/>
+      <c r="B67" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C67" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="D67" s="17"/>
+      <c r="E67" s="17"/>
+      <c r="F67" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="G67" s="9"/>
+    </row>
+    <row r="68" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="19"/>
+      <c r="B68" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C68" s="21"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="9"/>
+    </row>
+    <row r="69" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="19"/>
+      <c r="B69" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C69" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="D69" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="E69" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F69" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="G69" s="9"/>
+    </row>
+    <row r="70" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="19"/>
+      <c r="B70" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C70" s="26"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="17"/>
+      <c r="G70" s="9"/>
+    </row>
+    <row r="71" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="19"/>
+      <c r="B71" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C71" s="21"/>
+      <c r="D71" s="17"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="17"/>
+      <c r="G71" s="9"/>
+    </row>
+    <row r="72" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="19"/>
+      <c r="B72" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C72" s="7"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="17"/>
+      <c r="G72" s="9"/>
+    </row>
+    <row r="73" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="19"/>
+      <c r="B73" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C73" s="7"/>
+      <c r="D73" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E73" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F73" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="G73" s="9"/>
+    </row>
+    <row r="74" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="19"/>
+      <c r="B74" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C74" s="7"/>
+      <c r="D74" s="17"/>
+      <c r="E74" s="17"/>
+      <c r="F74" s="17"/>
+      <c r="G74" s="9"/>
+    </row>
+    <row r="75" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B75" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G75" s="9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="19"/>
+      <c r="B76" s="17"/>
+      <c r="C76" s="17"/>
+      <c r="D76" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G76" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="19"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="17"/>
+      <c r="D77" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G77" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="19"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G78" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="19"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="17"/>
+      <c r="D79" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F79" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G79" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="19"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="17"/>
+      <c r="D80" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G80" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="19"/>
+      <c r="B81" s="17"/>
+      <c r="C81" s="17"/>
+      <c r="D81" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G81" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="19"/>
+      <c r="B82" s="17"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G82" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="19"/>
+      <c r="B83" s="17"/>
+      <c r="C83" s="17"/>
+      <c r="D83" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F83" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="G37" s="10"/>
-    </row>
-    <row r="38" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="25"/>
-      <c r="B38" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="10"/>
-    </row>
-    <row r="39" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E39" s="8" t="s">
+      <c r="G83" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="19"/>
+      <c r="B84" s="17"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E84" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F39" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="G39" s="10"/>
-    </row>
-    <row r="40" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="13"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E40" s="8" t="s">
+      <c r="F84" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G84" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="19"/>
+      <c r="B85" s="17"/>
+      <c r="C85" s="17"/>
+      <c r="D85" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="E85" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F40" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="G40" s="10"/>
-    </row>
-    <row r="41" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="13"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="E41" s="8" t="s">
+      <c r="F85" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G85" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="24"/>
+      <c r="B86" s="20"/>
+      <c r="C86" s="20"/>
+      <c r="D86" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="E86" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="F41" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="G41" s="10"/>
-    </row>
-    <row r="42" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="13"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="E42" s="8" t="s">
+      <c r="F86" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="G86" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="24"/>
+      <c r="B87" s="20"/>
+      <c r="C87" s="20"/>
+      <c r="D87" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E87" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="F42" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="G42" s="10"/>
-    </row>
-    <row r="43" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="13"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E43" s="8" t="s">
+      <c r="F87" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="G87" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="24"/>
+      <c r="B88" s="20"/>
+      <c r="C88" s="20"/>
+      <c r="D88" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="E88" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="F43" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="G43" s="10"/>
-    </row>
-    <row r="44" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="13"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="E44" s="8" t="s">
+      <c r="F88" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="G88" s="25" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="24"/>
+      <c r="B89" s="20"/>
+      <c r="C89" s="20"/>
+      <c r="D89" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="E89" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="F44" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="G44" s="10"/>
-    </row>
-    <row r="45" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="13"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E45" s="8" t="s">
+      <c r="F89" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G89" s="25" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="22"/>
+      <c r="B90" s="23"/>
+      <c r="C90" s="23"/>
+      <c r="D90" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="E90" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="F45" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="G45" s="10"/>
-    </row>
-    <row r="46" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="13"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="G46" s="10"/>
-    </row>
-    <row r="47" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="13"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="G47" s="10"/>
-    </row>
-    <row r="48" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="26"/>
-      <c r="B48" s="28"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="E48" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="F48" s="20" t="s">
+      <c r="F90" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="G90" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="G48" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="46">
-    <mergeCell ref="A39:A48"/>
+  <mergeCells count="87">
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="A75:A90"/>
+    <mergeCell ref="B75:B90"/>
+    <mergeCell ref="C75:C90"/>
+    <mergeCell ref="C69:C71"/>
+    <mergeCell ref="F69:F72"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="D65:D68"/>
+    <mergeCell ref="D69:D72"/>
+    <mergeCell ref="E69:E72"/>
+    <mergeCell ref="E62:E64"/>
+    <mergeCell ref="F62:F64"/>
+    <mergeCell ref="E65:E68"/>
+    <mergeCell ref="D62:D64"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="C48:C52"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="C56:C61"/>
+    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="D56:D61"/>
+    <mergeCell ref="F56:F61"/>
+    <mergeCell ref="E56:E61"/>
+    <mergeCell ref="D48:D52"/>
+    <mergeCell ref="E48:E52"/>
+    <mergeCell ref="F48:F52"/>
+    <mergeCell ref="D53:D55"/>
+    <mergeCell ref="E53:E55"/>
+    <mergeCell ref="F53:F55"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="C44:C47"/>
+    <mergeCell ref="D44:D47"/>
+    <mergeCell ref="E44:E47"/>
+    <mergeCell ref="F44:F47"/>
     <mergeCell ref="C37:C38"/>
     <mergeCell ref="D37:D38"/>
     <mergeCell ref="E37:E38"/>
     <mergeCell ref="F37:F38"/>
-    <mergeCell ref="B39:B48"/>
-    <mergeCell ref="C39:C48"/>
+    <mergeCell ref="A4:A74"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="F39:F41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
     <mergeCell ref="C34:C36"/>
     <mergeCell ref="D34:D36"/>
     <mergeCell ref="E34:E36"/>
     <mergeCell ref="F34:F36"/>
-    <mergeCell ref="A4:A36"/>
     <mergeCell ref="C27:C29"/>
     <mergeCell ref="D27:D29"/>
     <mergeCell ref="E27:E29"/>
